--- a/Dados/24-jun.xlsx
+++ b/Dados/24-jun.xlsx
@@ -4702,7 +4702,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>moji mirim</t>
+          <t>mogi mirim</t>
         </is>
       </c>
       <c r="B334" t="n">
